--- a/media/used_form/fn/bd/采购申请.xlsx
+++ b/media/used_form/fn/bd/采购申请.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\参考资料\小葫芦报销及付款制度（内含相关表单）-20180822\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Application for purchase</t>
   </si>
@@ -105,42 +105,6 @@
   </si>
   <si>
     <t>审批意见：</t>
-  </si>
-  <si>
-    <t>基础技术中心</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐福东</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机电源</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>爱国者G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="华文仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-T450</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修替换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,6 +843,177 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -891,181 +1026,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1598,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1655,38 +1619,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" ht="21.75" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -1721,28 +1685,22 @@
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="49" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="50"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
       <c r="I5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="105" t="s">
-        <v>30</v>
-      </c>
+      <c r="J5" s="46"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1754,105 +1712,95 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="93"/>
     </row>
     <row r="7" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
-        <v>43549</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>2</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="71"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
     </row>
     <row r="9" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>3</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>4</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
     </row>
     <row r="11" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
@@ -1911,7 +1859,7 @@
       <c r="L13" s="37"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -1950,126 +1898,126 @@
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51" t="s">
+      <c r="K16" s="85"/>
+      <c r="L16" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="82"/>
+      <c r="M16" s="86"/>
     </row>
     <row r="17" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>1</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="11"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="88"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>2</v>
       </c>
       <c r="B18" s="26"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="26"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="86">
+      <c r="J18" s="60">
         <f t="shared" ref="J18:J20" si="0">H18*I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="89"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>3</v>
       </c>
       <c r="B19" s="26"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="26"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="86">
+      <c r="J19" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="87"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="89"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>4</v>
       </c>
       <c r="B20" s="28"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="28"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="86">
+      <c r="J20" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="87"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="95"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="29"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="99">
+      <c r="J21" s="51">
         <f>SUM(J17:K20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
@@ -2091,10 +2039,10 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -2110,10 +2058,10 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -2129,10 +2077,10 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="103"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -2159,12 +2107,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="J19:K19"/>
@@ -2173,44 +2153,12 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
